--- a/results/simple_lstm_rb.xlsx
+++ b/results/simple_lstm_rb.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17.02574348449707</v>
+        <v>15.96739387512207</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14.78942489624023</v>
+        <v>13.88980484008789</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -467,7 +467,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14.50603103637695</v>
+        <v>14.35059261322021</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -477,7 +477,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14.23464584350586</v>
+        <v>15.00671863555908</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14.73467063903809</v>
+        <v>14.19606781005859</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13.84510803222656</v>
+        <v>14.15580368041992</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14.31335639953613</v>
+        <v>13.08119201660156</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14.5402660369873</v>
+        <v>15.30538558959961</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13.54879093170166</v>
+        <v>14.66966533660889</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16.84625816345215</v>
+        <v>15.82043647766113</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17.69736289978027</v>
+        <v>18.38859939575195</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15.2926549911499</v>
+        <v>15.06583213806152</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14.83994007110596</v>
+        <v>14.55790233612061</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11.32526111602783</v>
+        <v>10.33984375</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>19.04762077331543</v>
+        <v>19.72451019287109</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15.47529029846191</v>
+        <v>13.36262989044189</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17.10324668884277</v>
+        <v>16.09328651428223</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>13.80183029174805</v>
+        <v>13.63323879241943</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12.91785907745361</v>
+        <v>13.93267059326172</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13.43854999542236</v>
+        <v>14.65472602844238</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15.70325565338135</v>
+        <v>15.12713527679443</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14.64431762695312</v>
+        <v>15.61810207366943</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11.90158843994141</v>
+        <v>12.62704372406006</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.43388938903809</v>
+        <v>12.37612724304199</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10.20362758636475</v>
+        <v>9.811525344848633</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11.65767288208008</v>
+        <v>10.99271583557129</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12.3308048248291</v>
+        <v>14.41643905639648</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10.51163291931152</v>
+        <v>10.82390213012695</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16.88964653015137</v>
+        <v>17.54978942871094</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11.23960590362549</v>
+        <v>11.12194633483887</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7.880170822143555</v>
+        <v>7.114964008331299</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10.74626922607422</v>
+        <v>11.00321960449219</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10.65058326721191</v>
+        <v>9.683656692504883</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>12.19719314575195</v>
+        <v>14.18196487426758</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.238700866699219</v>
+        <v>8.683452606201172</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>13.75102043151855</v>
+        <v>9.335639953613281</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12.09035682678223</v>
+        <v>8.516899108886719</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8.120746612548828</v>
+        <v>7.217050075531006</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>11.47614669799805</v>
+        <v>11.8404426574707</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10.71390724182129</v>
+        <v>9.154459953308105</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8.229487419128418</v>
+        <v>7.906867980957031</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8.101259231567383</v>
+        <v>8.534980773925781</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7.457376003265381</v>
+        <v>7.02731990814209</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10.29659080505371</v>
+        <v>10.71379280090332</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8.593063354492188</v>
+        <v>7.98175573348999</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6.601047039031982</v>
+        <v>7.993299007415771</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7.387678146362305</v>
+        <v>6.001427173614502</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8.561010360717773</v>
+        <v>8.42801570892334</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6.146143913269043</v>
+        <v>8.238686561584473</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7.263270854949951</v>
+        <v>8.153440475463867</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.485740661621094</v>
+        <v>5.73018217086792</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9.452030181884766</v>
+        <v>9.689674377441406</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.885001182556152</v>
+        <v>8.921792030334473</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6.096683502197266</v>
+        <v>5.610806941986084</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>12.7379732131958</v>
+        <v>13.24627876281738</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11.29394626617432</v>
+        <v>11.78199863433838</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>7.805205821990967</v>
+        <v>6.641943454742432</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7.664725780487061</v>
+        <v>7.328412532806396</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>10.13092613220215</v>
+        <v>10.34720420837402</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9.930524826049805</v>
+        <v>9.901723861694336</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7.111870765686035</v>
+        <v>6.967320919036865</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>8.178521156311035</v>
+        <v>8.795686721801758</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>11.68667697906494</v>
+        <v>11.8349666595459</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6.787602424621582</v>
+        <v>6.243778228759766</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7.761744499206543</v>
+        <v>6.452099800109863</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.63874340057373</v>
+        <v>5.558156490325928</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7.82432746887207</v>
+        <v>7.169848918914795</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.447850704193115</v>
+        <v>8.04902458190918</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5.307127952575684</v>
+        <v>5.040937900543213</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>8.229769706726074</v>
+        <v>8.098000526428223</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5.940814971923828</v>
+        <v>6.313626766204834</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>15.18839168548584</v>
+        <v>14.69143390655518</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.424254894256592</v>
+        <v>6.159089088439941</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>7.36540699005127</v>
+        <v>6.741141796112061</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5.353055000305176</v>
+        <v>7.949490070343018</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6.587955474853516</v>
+        <v>7.927831649780273</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.996001720428467</v>
+        <v>8.119514465332031</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5.971714496612549</v>
+        <v>6.616430759429932</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>8.246282577514648</v>
+        <v>8.629020690917969</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7.096632480621338</v>
+        <v>6.600416660308838</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>9.067770004272461</v>
+        <v>8.197599411010742</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>14.59316635131836</v>
+        <v>14.83050537109375</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
